--- a/com_sample.xlsx
+++ b/com_sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E74681-6AEA-4B39-9FF8-CC8BCECE5F42}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9EA820-A087-458C-A21B-F57D33EDA6FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/com_sample.xlsx
+++ b/com_sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9EA820-A087-458C-A21B-F57D33EDA6FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF742DEF-EA28-4368-8600-8BF4323D5B7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,104 +389,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:J49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,901 +783,919 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="27"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="27"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="9">
         <v>9</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="31" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="31" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="31" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="31" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="15"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="22" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="7" t="s">
+      <c r="D29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="7" t="s">
+      <c r="D30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="9">
         <v>1000</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="9">
         <v>10</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="7" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="9">
         <v>0</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="7" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="9">
         <v>10</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="7" t="s">
+      <c r="D35" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="16">
-        <v>5</v>
-      </c>
-      <c r="H35" s="5" t="s">
+      <c r="G35" s="9">
+        <v>5</v>
+      </c>
+      <c r="H35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
     </row>
     <row r="36" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="24"/>
-      <c r="C36" s="29" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="7" t="s">
+      <c r="D36" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="9">
         <v>600</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="C40" s="29" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="9">
         <v>9</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="17"/>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="31" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="31" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="9">
         <v>600</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="11" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="9">
         <v>3189</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="31" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="17"/>
-      <c r="F45" s="29" t="s">
+      <c r="F45" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="9">
         <v>2487</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H45" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="31" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="17"/>
-      <c r="F46" s="29" t="s">
+      <c r="F46" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="9">
         <v>1000</v>
       </c>
-      <c r="H46" s="32" t="s">
+      <c r="H46" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="34"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="31" t="s">
+      <c r="D47" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="17"/>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="15">
         <v>1013</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="31" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="9">
         <v>24</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="29" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E49" s="17"/>
-      <c r="F49" s="29" t="s">
+      <c r="F49" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="H49" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="34"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D20:E20"/>
@@ -1698,64 +1716,46 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B14:B24"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B39:B49"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="B14:B24"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H48:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/com_sample.xlsx
+++ b/com_sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF742DEF-EA28-4368-8600-8BF4323D5B7E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914462F-8EFA-4CC8-BC0A-BD55E364E817}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="73">
   <si>
     <t>Arduino</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Thermomètre</t>
   </si>
   <si>
-    <t>Milliseconde : 1 Seconde : 1000 Minute : 60000</t>
-  </si>
-  <si>
     <t>0 pour désactiver / Intervalle d'envoi de signal pour activer (entre 1s et 600s)</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Quand démarrer la mesure</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0 : dès la réception Délai en seconde Heure du démarrage</t>
-  </si>
-  <si>
     <t>Alphanumérique Valeurs possibles</t>
   </si>
   <si>
@@ -236,6 +230,15 @@
   </si>
   <si>
     <t>*11000*</t>
+  </si>
+  <si>
+    <t>*1111*</t>
+  </si>
+  <si>
+    <t>Taille en octet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 : dès la réception Heure de démarrage</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,10 +432,49 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -444,28 +486,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -477,17 +498,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J49"/>
+  <dimension ref="B2:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,55 +797,60 @@
     <col min="6" max="6" width="34.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
@@ -841,850 +858,894 @@
         <v>11</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
-    </row>
-    <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26"/>
+      <c r="C5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B8" s="26"/>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="2:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="2:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="3"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="9">
+        <v>9</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="17"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="19"/>
       <c r="F15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="9">
-        <v>9</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="21" t="s">
+      <c r="G18" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="14" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G20" s="36"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="21" t="s">
+      <c r="G21" s="36"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="17"/>
+      <c r="D23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="24"/>
-      <c r="C24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+      <c r="G23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="23" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F26" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="11" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H27" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
         <v>7</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
       <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="9">
         <v>10</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="35" t="s">
+      <c r="H30" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="26"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="35" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="E32" s="28"/>
+      <c r="F32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="9">
         <v>10</v>
       </c>
-      <c r="H31" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="35" t="s">
+      <c r="H32" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="26"/>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="32" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="35" t="s">
+      <c r="H33" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="26"/>
+      <c r="C34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="9">
-        <v>10</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="9">
         <v>5</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
+      <c r="H34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G35" s="9">
-        <v>5</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="9">
         <v>600</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
+      <c r="H35" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="19"/>
       <c r="F39" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="9">
+        <v>9</v>
+      </c>
+      <c r="H39" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="17"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="19"/>
       <c r="F40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33"/>
+    </row>
+    <row r="41" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="G40" s="9">
-        <v>9</v>
-      </c>
-      <c r="H40" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-    </row>
-    <row r="41" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="17"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="18"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="19"/>
       <c r="F42" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="9">
+        <v>600</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="33"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="18"/>
+      <c r="C43" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="9">
+        <v>3189</v>
+      </c>
+      <c r="H43" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="18"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="9">
+        <v>2487</v>
+      </c>
+      <c r="H44" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="9">
-        <v>600</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="14" t="s">
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="9">
-        <v>3189</v>
-      </c>
-      <c r="H44" s="18" t="s">
+      <c r="G45" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="C46" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1013</v>
+      </c>
+      <c r="H46" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="9">
-        <v>2487</v>
-      </c>
-      <c r="H45" s="18" t="s">
+      <c r="I46" s="32"/>
+      <c r="J46" s="33"/>
+    </row>
+    <row r="47" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="18"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="9">
+        <v>24</v>
+      </c>
+      <c r="H47" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="14" t="s">
+      <c r="I47" s="32"/>
+      <c r="J47" s="33"/>
+    </row>
+    <row r="48" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="C48" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="15">
-        <v>1013</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="17"/>
+      <c r="D48" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="19"/>
       <c r="F48" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="9">
-        <v>24</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
-      <c r="C49" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="17"/>
-      <c r="F49" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="G48" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="32"/>
+      <c r="J48" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
+  <mergeCells count="107">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="H38:J38"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
@@ -1694,68 +1755,37 @@
     <mergeCell ref="H34:J34"/>
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B39:B49"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/com_sample.xlsx
+++ b/com_sample.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914462F-8EFA-4CC8-BC0A-BD55E364E817}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0E936-7C80-48A8-876F-09CEB8618C86}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:J8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
